--- a/data/aggregated_single_ext/bs_auto3.xlsx
+++ b/data/aggregated_single_ext/bs_auto3.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.141925383077948</v>
+        <v>0.1614703080342966</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>656.1437117348435</v>
+        <v>244.2898869606224</v>
       </c>
     </row>
   </sheetData>

--- a/data/aggregated_single_ext/bs_auto3.xlsx
+++ b/data/aggregated_single_ext/bs_auto3.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1614703080342966</v>
+        <v>0.141925383077948</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>244.2898869606224</v>
+        <v>656.1437117348435</v>
       </c>
     </row>
   </sheetData>
